--- a/input/currency.xlsx
+++ b/input/currency.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\chiisen\coin_size\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\chiisen\game_denom\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA23F44A-4A8C-4463-A7EB-2FABF0E8BE64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A2F561-8C52-4208-A2D6-16B595AB9A86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Currency" sheetId="1" r:id="rId1"/>
+    <sheet name="Currency" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,13 +25,354 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
   <si>
     <t>Currency</t>
   </si>
   <si>
+    <t>ETB</t>
+  </si>
+  <si>
+    <t>SLL</t>
+  </si>
+  <si>
+    <t>SLE</t>
+  </si>
+  <si>
+    <t>AMD</t>
+  </si>
+  <si>
+    <t>ARS</t>
+  </si>
+  <si>
+    <t>BOB</t>
+  </si>
+  <si>
+    <t>BZD</t>
+  </si>
+  <si>
+    <t>CLP</t>
+  </si>
+  <si>
+    <t>COP</t>
+  </si>
+  <si>
+    <t>DKK</t>
+  </si>
+  <si>
+    <t>DOP</t>
+  </si>
+  <si>
+    <t>DZD</t>
+  </si>
+  <si>
+    <t>ILS</t>
+  </si>
+  <si>
+    <t>KZT</t>
+  </si>
+  <si>
+    <t>LRD</t>
+  </si>
+  <si>
+    <t>MAD</t>
+  </si>
+  <si>
+    <t>MOP</t>
+  </si>
+  <si>
+    <t>NTD</t>
+  </si>
+  <si>
+    <t>PLN</t>
+  </si>
+  <si>
+    <t>PYG</t>
+  </si>
+  <si>
+    <t>UAH</t>
+  </si>
+  <si>
+    <t>VEF</t>
+  </si>
+  <si>
+    <t>VES</t>
+  </si>
+  <si>
+    <t>AED</t>
+  </si>
+  <si>
+    <t>AUD</t>
+  </si>
+  <si>
+    <t>AUD2</t>
+  </si>
+  <si>
+    <t>AZN</t>
+  </si>
+  <si>
+    <t>BDT</t>
+  </si>
+  <si>
+    <t>BGN</t>
+  </si>
+  <si>
+    <t>BND</t>
+  </si>
+  <si>
+    <t>BRL</t>
+  </si>
+  <si>
+    <t>CAD</t>
+  </si>
+  <si>
+    <t>CAD2</t>
+  </si>
+  <si>
+    <t>CHF</t>
+  </si>
+  <si>
+    <t>CHF2</t>
+  </si>
+  <si>
+    <t>CNY</t>
+  </si>
+  <si>
+    <t>CNY2</t>
+  </si>
+  <si>
+    <t>CRC</t>
+  </si>
+  <si>
+    <t>CZK</t>
+  </si>
+  <si>
+    <t>DOG</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>EUR2</t>
+  </si>
+  <si>
+    <t>GBP</t>
+  </si>
+  <si>
+    <t>GBP2</t>
+  </si>
+  <si>
+    <t>GEL</t>
+  </si>
+  <si>
+    <t>GHS</t>
+  </si>
+  <si>
+    <t>HKD</t>
+  </si>
+  <si>
+    <t>HKD2</t>
+  </si>
+  <si>
+    <t>HNL</t>
+  </si>
+  <si>
+    <t>HRK</t>
+  </si>
+  <si>
+    <t>HUF</t>
+  </si>
+  <si>
+    <t>IDR</t>
+  </si>
+  <si>
+    <t>IDR2</t>
+  </si>
+  <si>
+    <t>IDS</t>
+  </si>
+  <si>
+    <t>INR</t>
+  </si>
+  <si>
+    <t>INR2</t>
+  </si>
+  <si>
+    <t>IRR</t>
+  </si>
+  <si>
+    <t>ISK</t>
+  </si>
+  <si>
+    <t>JPY</t>
+  </si>
+  <si>
+    <t>JPY2</t>
+  </si>
+  <si>
     <t>KBB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KES</t>
+  </si>
+  <si>
+    <t>KGS</t>
+  </si>
+  <si>
+    <t>KHR</t>
+  </si>
+  <si>
+    <t>KRW</t>
+  </si>
+  <si>
+    <t>KRW2</t>
+  </si>
+  <si>
+    <t>LAK</t>
+  </si>
+  <si>
+    <t>LKR</t>
+  </si>
+  <si>
+    <t>MDL</t>
+  </si>
+  <si>
+    <t>MMK</t>
+  </si>
+  <si>
+    <t>MMK2</t>
+  </si>
+  <si>
+    <t>MNT</t>
+  </si>
+  <si>
+    <t>MXN</t>
+  </si>
+  <si>
+    <t>MYR</t>
+  </si>
+  <si>
+    <t>MYR2</t>
+  </si>
+  <si>
+    <t>NGN</t>
+  </si>
+  <si>
+    <t>NIO</t>
+  </si>
+  <si>
+    <t>NOK</t>
+  </si>
+  <si>
+    <t>NOK2</t>
+  </si>
+  <si>
+    <t>NPR</t>
+  </si>
+  <si>
+    <t>NZD</t>
+  </si>
+  <si>
+    <t>NZD2</t>
+  </si>
+  <si>
+    <t>PEN</t>
+  </si>
+  <si>
+    <t>PHP</t>
+  </si>
+  <si>
+    <t>PHP2</t>
+  </si>
+  <si>
+    <t>RON</t>
+  </si>
+  <si>
+    <t>RSD</t>
+  </si>
+  <si>
+    <t>RUB</t>
+  </si>
+  <si>
+    <t>RUP</t>
+  </si>
+  <si>
+    <t>SAR</t>
+  </si>
+  <si>
+    <t>SEK</t>
+  </si>
+  <si>
+    <t>SEK2</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>SGD2</t>
+  </si>
+  <si>
+    <t>THB</t>
+  </si>
+  <si>
+    <t>THB2</t>
+  </si>
+  <si>
+    <t>TND</t>
+  </si>
+  <si>
+    <t>TRY</t>
+  </si>
+  <si>
+    <t>TWD</t>
+  </si>
+  <si>
+    <t>TZS</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>USD2</t>
+  </si>
+  <si>
+    <t>USDT</t>
+  </si>
+  <si>
+    <t>UYU</t>
+  </si>
+  <si>
+    <t>VDO</t>
+  </si>
+  <si>
+    <t>VND</t>
+  </si>
+  <si>
+    <t>VND2</t>
+  </si>
+  <si>
+    <t>VNS</t>
+  </si>
+  <si>
+    <t>XAF</t>
+  </si>
+  <si>
+    <t>XOF</t>
+  </si>
+  <si>
+    <t>XXX</t>
+  </si>
+  <si>
+    <t>ZAR</t>
+  </si>
+  <si>
+    <t>ZAR2</t>
+  </si>
+  <si>
+    <t>ZMW</t>
+  </si>
+  <si>
+    <t>FIM</t>
   </si>
 </sst>
 </file>
@@ -85,6 +426,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFB4C7DC"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFF6F9D4"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFF5CE"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFBF00"/>
+      <rgbColor rgb="FFFF8000"/>
+      <rgbColor rgb="FFFF4000"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FFC9211E"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -392,11 +801,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:A116"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.375" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -408,7 +820,577 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/input/currency.xlsx
+++ b/input/currency.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\chiisen\coin_size\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{973E8E9F-E594-4563-947F-59409D9A8D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC427CC1-AF29-46B2-A0F1-C07FC5F133D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Currency" sheetId="2" r:id="rId1"/>
+    <sheet name="Currency" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -25,64 +25,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Currency</t>
   </si>
   <si>
-    <t>AUD2</t>
-  </si>
-  <si>
-    <t>CAD2</t>
-  </si>
-  <si>
-    <t>CHF2</t>
-  </si>
-  <si>
-    <t>CNY2</t>
-  </si>
-  <si>
-    <t>EUR2</t>
-  </si>
-  <si>
-    <t>GBP2</t>
-  </si>
-  <si>
-    <t>HKD2</t>
-  </si>
-  <si>
-    <t>INR2</t>
-  </si>
-  <si>
-    <t>JPY2</t>
-  </si>
-  <si>
-    <t>MYR2</t>
-  </si>
-  <si>
-    <t>NOK2</t>
-  </si>
-  <si>
-    <t>PHP2</t>
-  </si>
-  <si>
-    <t>SEK2</t>
-  </si>
-  <si>
-    <t>SGD2</t>
-  </si>
-  <si>
-    <t>USD2</t>
-  </si>
-  <si>
-    <t>ZAR2</t>
-  </si>
-  <si>
-    <t>THB2</t>
+    <t>MGA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NZD2</t>
+    <t>NAD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZWD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -520,17 +477,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:A19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D31E6E8-21FC-42EC-9747-4D62C05B1E4C}">
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.375" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -552,88 +506,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;Kffffff頁 &amp;P</oddFooter>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>